--- a/Postprocessing/ETS_historical.xlsx
+++ b/Postprocessing/ETS_historical.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="ETS_historical" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -884,7 +884,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K4"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
